--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P06_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P06_trail5 Features.xlsx
@@ -3374,7 +3374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3385,29 +3385,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3428,115 +3426,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3553,72 +3541,66 @@
         <v>9.0846131061479e-09</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.253398246862904</v>
+        <v>3.614062937203012e-08</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.7639050048335885</v>
+        <v>4.016206086503743e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.614062937203012e-08</v>
+        <v>0.06145047617056247</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.016206086503743e-07</v>
+        <v>0.08219075942480605</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.06145047617056247</v>
+        <v>0.01052252686552737</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.08219075942480605</v>
+        <v>1.867388429367241</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.01052252686552737</v>
+        <v>2.116626814702033</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.883405120395146</v>
+        <v>5.264755277571747</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.116626814702033</v>
+        <v>4.997876646965264e-18</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.264755277571747</v>
+        <v>7059933998.988607</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.997876646965264e-18</v>
+        <v>1.670058716113456e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>7059933998.988607</v>
+        <v>249.1075067698704</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.670058716113456e-08</v>
+        <v>0.0001339222183373949</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>249.1075067698704</v>
+        <v>11.41793112761217</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001339222183373949</v>
+        <v>1.097303921039154</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>11.41793112761217</v>
+        <v>0.01745932593614045</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.097303921039154</v>
+        <v>3.769140890520784</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01745932593614045</v>
+        <v>0.9600398890924431</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.769140890520784</v>
+        <v>1.372487683740508</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9600398890924431</v>
+        <v>213</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.372487683740508</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>213</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>1.887595362418621</v>
       </c>
     </row>
@@ -3633,72 +3615,66 @@
         <v>8.703684344630815e-09</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.1760473113786425</v>
+        <v>3.306079121816712e-08</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.9886120124182765</v>
+        <v>4.021508044692028e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3.306079121816712e-08</v>
+        <v>0.05794928976141902</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.021508044692028e-07</v>
+        <v>0.07757994017852737</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.05794928976141902</v>
+        <v>0.009370868018072328</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.07757994017852737</v>
+        <v>1.864373996135951</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.009370868018072328</v>
+        <v>2.127499327902825</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.882033166518498</v>
+        <v>5.382850634542432</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.127499327902825</v>
+        <v>4.498571495865317e-18</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.382850634542432</v>
+        <v>8087308552.518364</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.498571495865317e-18</v>
+        <v>1.462180706001431e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>8087308552.518364</v>
+        <v>294.2270876225156</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.462180706001431e-08</v>
+        <v>0.0001758044272095319</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>294.2270876225156</v>
+        <v>13.40460592414565</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001758044272095319</v>
+        <v>1.0779060315184</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>13.40460592414565</v>
+        <v>0.03158914776109918</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.0779060315184</v>
+        <v>3.753494053570733</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.03158914776109918</v>
+        <v>0.9607020224124678</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.753494053570733</v>
+        <v>1.462018519174565</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9607020224124678</v>
+        <v>239</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.462018519174565</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>239</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>3.002236749429447</v>
       </c>
     </row>
@@ -3713,72 +3689,66 @@
         <v>8.387555319172031e-09</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.1273074433407654</v>
+        <v>3.063662201772643e-08</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.158628818905523</v>
+        <v>4.026327504344914e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3.063662201772643e-08</v>
+        <v>0.05499337268690492</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.026327504344914e-07</v>
+        <v>0.07535509884486821</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.05499337268690492</v>
+        <v>0.008698682881312715</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.07535509884486821</v>
+        <v>1.899433702983482</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.008698682881312715</v>
+        <v>2.231582990531142</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.935553726180649</v>
+        <v>6.037604607857286</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.231582990531142</v>
+        <v>2.696506959833795e-18</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>6.037604607857286</v>
+        <v>13345195778.04826</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.696506959833795e-18</v>
+        <v>8.978779983088691e-09</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>13345195778.04826</v>
+        <v>480.2323855871219</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>8.978779983088691e-09</v>
+        <v>0.0001930085345832267</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>480.2323855871219</v>
+        <v>11.52207145557336</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001930085345832267</v>
+        <v>1.522151745366425</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>11.52207145557336</v>
+        <v>0.02562345224639116</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.522151745366425</v>
+        <v>4.228276535774701</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02562345224639116</v>
+        <v>0.9604920343354217</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>4.228276535774701</v>
+        <v>1.089015434934629</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9604920343354217</v>
+        <v>276</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.089015434934629</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>276</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>3.770463030699437</v>
       </c>
     </row>
@@ -3793,72 +3763,66 @@
         <v>8.116766797042782e-09</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.09974987642963037</v>
+        <v>2.864716303836139e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.292164174736476</v>
+        <v>4.030757543384911e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.864716303836139e-08</v>
+        <v>0.05246513612592452</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.030757543384911e-07</v>
+        <v>0.07443313542414097</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.05246513612592452</v>
+        <v>0.008289864394399802</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.07443313542414097</v>
+        <v>1.904771452404116</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.008289864394399802</v>
+        <v>2.641583859614863</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.943025016103268</v>
+        <v>6.278299025346288</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.641583859614863</v>
+        <v>8.217393407509132e-19</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>6.278299025346288</v>
+        <v>43741623100.77914</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>8.217393407509132e-19</v>
+        <v>2.740519798723872e-09</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>43741623100.77914</v>
+        <v>1572.258197150713</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.740519798723872e-09</v>
+        <v>9.577925434705272e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1572.258197150713</v>
+        <v>9.943930291018946</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>9.577925434705272e-05</v>
+        <v>1.635480424476087</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.943930291018946</v>
+        <v>0.009470820248346608</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.635480424476087</v>
+        <v>5.367142449214128</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.009470820248346608</v>
+        <v>0.959914638327268</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>5.367142449214128</v>
+        <v>0.9640982028286565</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.959914638327268</v>
+        <v>309</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.9640982028286565</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>309</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>5.666019780131672</v>
       </c>
     </row>
@@ -3873,72 +3837,66 @@
         <v>7.881052716076234e-09</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.08958163716602445</v>
+        <v>2.688148249645174e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.396310041642655</v>
+        <v>4.034856980746435e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.688148249645174e-08</v>
+        <v>0.05007101113284293</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.034856980746435e-07</v>
+        <v>0.07385807988019427</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.05007101113284293</v>
+        <v>0.007959362287025236</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.07385807988019427</v>
+        <v>1.908273685684487</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.007959362287025236</v>
+        <v>3.057611378199347</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.947295530974921</v>
+        <v>6.266787939905391</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.057611378199347</v>
+        <v>4.092383570635979e-19</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>6.266787939905391</v>
+        <v>87284505776.98195</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4.092383570635979e-19</v>
+        <v>1.375661889208015e-09</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>87284505776.98195</v>
+        <v>3117.817187568537</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.375661889208015e-09</v>
+        <v>6.322693609828094e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>3117.817187568537</v>
+        <v>6.908974285264104</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>6.322693609828094e-05</v>
+        <v>1.705114432644305</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>6.908974285264104</v>
+        <v>0.00301806986833795</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.705114432644305</v>
+        <v>5.69940599982884</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.00301806986833795</v>
+        <v>0.9574589653381679</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>5.69940599982884</v>
+        <v>0.8588885898968639</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9574589653381679</v>
+        <v>337</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.8588885898968639</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>337</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>6.312841530984109</v>
       </c>
     </row>
@@ -3953,72 +3911,66 @@
         <v>7.676884587605447e-09</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.09592914184136779</v>
+        <v>2.522080905372437e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.470555140865679</v>
+        <v>4.038657145320943e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.522080905372437e-08</v>
+        <v>0.04768532814796023</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.038657145320943e-07</v>
+        <v>0.07305859611505458</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.04768532814796023</v>
+        <v>0.007608976348911551</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.07305859611505458</v>
+        <v>1.911882192531392</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.007608976348911551</v>
+        <v>3.692853205416409</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.95186355801873</v>
+        <v>6.32747425816278</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.692853205416409</v>
+        <v>3.616942828311999e-19</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>6.32747425816278</v>
+        <v>92865150513.19907</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.616942828311999e-19</v>
+        <v>1.285358996309269e-09</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>92865150513.19907</v>
+        <v>3119.228411748947</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.285358996309269e-09</v>
+        <v>6.278203389302013e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>3119.228411748947</v>
+        <v>6.697798389999217</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>6.278203389302013e-05</v>
+        <v>1.552347035581334</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>6.697798389999217</v>
+        <v>0.002816433636948204</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.552347035581334</v>
+        <v>5.655921245190638</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.002816433636948204</v>
+        <v>0.9559285318034928</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>5.655921245190638</v>
+        <v>0.8618348586738761</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9559285318034928</v>
+        <v>310</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.8618348586738761</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>310</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>6.316148054721792</v>
       </c>
     </row>
@@ -4395,7 +4347,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.368056347128323</v>
+        <v>1.368712037265341</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.362492859392856</v>
@@ -4484,7 +4436,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.421871532347503</v>
+        <v>1.431022336595392</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.486269965958673</v>
@@ -4573,7 +4525,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.412610122059004</v>
+        <v>1.420373593442223</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.519095761772863</v>
@@ -4662,7 +4614,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.411577865072202</v>
+        <v>1.414090231480756</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.550483400329995</v>
@@ -4751,7 +4703,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.405671917108661</v>
+        <v>1.406089074759487</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.564894065596963</v>
@@ -4840,7 +4792,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.41266972568177</v>
+        <v>1.410538882240283</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.455312929460426</v>
@@ -4929,7 +4881,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.42664331106569</v>
+        <v>1.418538902444584</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.566075827091247</v>
@@ -5018,7 +4970,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.409957628004145</v>
+        <v>1.40631109631307</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.536817855029593</v>
@@ -5107,7 +5059,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.424997303390989</v>
+        <v>1.418728701769945</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.478814626485929</v>
@@ -5196,7 +5148,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.428096071666016</v>
+        <v>1.417926139540346</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.579795806307256</v>
@@ -5285,7 +5237,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.336903039757218</v>
+        <v>1.321876911120528</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.661160345647007</v>
@@ -5374,7 +5326,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.304716837296198</v>
+        <v>1.302390574398052</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.670654535764741</v>
@@ -5463,7 +5415,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.315587871892058</v>
+        <v>1.314710813047111</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.662835497264867</v>
@@ -5552,7 +5504,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.315726367632512</v>
+        <v>1.314798881296129</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.663924884108056</v>
@@ -5641,7 +5593,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.2768202916215</v>
+        <v>1.27567670381674</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.665764214371531</v>
@@ -5730,7 +5682,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.255316567056887</v>
+        <v>1.254261366137728</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.674308927036575</v>
@@ -5819,7 +5771,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.214023085468366</v>
+        <v>1.203027360877245</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.641769986283693</v>
@@ -5908,7 +5860,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.220269246322745</v>
+        <v>1.209068989764354</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.627849528627381</v>
@@ -5997,7 +5949,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.220023887421304</v>
+        <v>1.209577302358382</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.626181731603758</v>
@@ -6086,7 +6038,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.220485835417675</v>
+        <v>1.211541542577</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.626708106614727</v>
@@ -6175,7 +6127,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.215373328073481</v>
+        <v>1.208784059131892</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.641323185790103</v>
@@ -6264,7 +6216,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.217301318347691</v>
+        <v>1.210271136019301</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.618219483923769</v>
@@ -6353,7 +6305,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.220188948381106</v>
+        <v>1.212945383628184</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.624250926632119</v>
@@ -6442,7 +6394,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.214227620400685</v>
+        <v>1.205839369649461</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.617423668674268</v>
@@ -6531,7 +6483,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.215949592853391</v>
+        <v>1.207451128771391</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.600457640282566</v>
@@ -6620,7 +6572,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.298501375674039</v>
+        <v>1.288046729376344</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.642772727821426</v>
@@ -6709,7 +6661,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.324193582056573</v>
+        <v>1.310993615877182</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.565600571997332</v>
@@ -6798,7 +6750,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.323334840575456</v>
+        <v>1.309502788870817</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.572167887819772</v>
@@ -6887,7 +6839,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.322833215342696</v>
+        <v>1.306530007371363</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.58085325054459</v>
@@ -6976,7 +6928,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.435774602436171</v>
+        <v>1.39612539617365</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.956422112114884</v>
@@ -7065,7 +7017,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.47764037153625</v>
+        <v>1.428780625733855</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.27939270353796</v>
@@ -7154,7 +7106,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.486045254253561</v>
+        <v>1.436650731069932</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.223460218807872</v>
@@ -7243,7 +7195,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.499637283049463</v>
+        <v>1.44788467999896</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.108441133691742</v>
@@ -7332,7 +7284,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.508921166975248</v>
+        <v>1.460505781068445</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.166272093901544</v>
@@ -7421,7 +7373,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.522456501611523</v>
+        <v>1.473480545912848</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.238985388965623</v>
@@ -7510,7 +7462,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.551504771767065</v>
+        <v>1.49716240905414</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.011816206935973</v>
@@ -7599,7 +7551,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.555214196329085</v>
+        <v>1.503048109808432</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.162253895142654</v>
@@ -7688,7 +7640,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.554505195420669</v>
+        <v>1.505510482195341</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.356677164807429</v>
@@ -7777,7 +7729,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.568717844275496</v>
+        <v>1.518684290491553</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.188406146060323</v>
@@ -7866,7 +7818,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.574018671713145</v>
+        <v>1.521236068863371</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.420575735376844</v>
@@ -7955,7 +7907,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.571426798064163</v>
+        <v>1.521163560848852</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.979240119408724</v>
@@ -8044,7 +7996,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.580689099259002</v>
+        <v>1.527976394330583</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.862037944768788</v>
@@ -8133,7 +8085,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.582874975326548</v>
+        <v>1.532895517072993</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.610242596621349</v>
@@ -8222,7 +8174,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.471570803238039</v>
+        <v>1.431528503854287</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.91868572007009</v>
@@ -8311,7 +8263,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.442718381814917</v>
+        <v>1.412864037307952</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.920821775830437</v>
@@ -8400,7 +8352,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.386342223460815</v>
+        <v>1.354321157492264</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.931889419613912</v>
@@ -8489,7 +8441,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.37112062594576</v>
+        <v>1.346704894049841</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.975246971965501</v>
@@ -8578,7 +8530,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.364424901904829</v>
+        <v>1.340312782241221</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.961087608081053</v>
@@ -8667,7 +8619,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.362126852703144</v>
+        <v>1.328817348037946</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.99388283797124</v>
@@ -8756,7 +8708,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.327009444703158</v>
+        <v>1.306856396105613</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.989065098009874</v>
@@ -8845,7 +8797,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.322612292916722</v>
+        <v>1.301819139803162</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.000705662588415</v>
@@ -9131,7 +9083,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.319073515042724</v>
+        <v>1.294404615597477</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.967492843576403</v>
@@ -9220,7 +9172,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.361590973156261</v>
+        <v>1.34615129610901</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.031055951963179</v>
@@ -9309,7 +9261,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.33782956541429</v>
+        <v>1.325728065854528</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.066057491754797</v>
@@ -9398,7 +9350,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.336751247626447</v>
+        <v>1.323535039452864</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.057485309938443</v>
@@ -9487,7 +9439,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.334852284820628</v>
+        <v>1.322552849584771</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.054199145189908</v>
@@ -9576,7 +9528,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.333786322873985</v>
+        <v>1.321295071708411</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.068889258343619</v>
@@ -9665,7 +9617,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.333335946219151</v>
+        <v>1.321058728126715</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.082694287479138</v>
@@ -9754,7 +9706,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.331547230986408</v>
+        <v>1.319822430739714</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.077141616889754</v>
@@ -9843,7 +9795,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.331167655781176</v>
+        <v>1.319218431166295</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.049827797131698</v>
@@ -9932,7 +9884,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.333188017029455</v>
+        <v>1.321601837531821</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.097023879639607</v>
@@ -10021,7 +9973,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.331410587710337</v>
+        <v>1.319163175164604</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.969896917320372</v>
@@ -10110,7 +10062,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.343970245865887</v>
+        <v>1.337254346232625</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.974918647931895</v>
@@ -10199,7 +10151,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.367367894887636</v>
+        <v>1.363115241765928</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.938470622697025</v>
@@ -10288,7 +10240,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.388982403347228</v>
+        <v>1.377226396727469</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.945754154597039</v>
@@ -10377,7 +10329,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.400584408125547</v>
+        <v>1.384235914878077</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.937269423727135</v>
@@ -10466,7 +10418,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.386423937081276</v>
+        <v>1.373628897018268</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.949812478649654</v>
@@ -10555,7 +10507,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.321171972260708</v>
+        <v>1.286376795407069</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.781491710701391</v>
@@ -10644,7 +10596,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.367176362463474</v>
+        <v>1.326889880075611</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.030538269742344</v>
@@ -10733,7 +10685,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.35894681971616</v>
+        <v>1.317861427814635</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.063930225729163</v>
@@ -10822,7 +10774,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.287523954399739</v>
+        <v>1.253033429911019</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.647531396504466</v>
@@ -10911,7 +10863,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.216779735294176</v>
+        <v>1.190015709894823</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.541477624260744</v>
@@ -11000,7 +10952,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.209942940866098</v>
+        <v>1.184034596759163</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.553779283344046</v>
@@ -11089,7 +11041,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.208267171593693</v>
+        <v>1.183751167326067</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.548768902401211</v>
@@ -11178,7 +11130,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.20470781974917</v>
+        <v>1.179818265908275</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.553243036713517</v>
@@ -11267,7 +11219,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.202565599626016</v>
+        <v>1.176339326838757</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.555164004494744</v>
@@ -11356,7 +11308,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.197638131040349</v>
+        <v>1.173031240596484</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.555605069539618</v>
@@ -11445,7 +11397,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.202246060749135</v>
+        <v>1.177386441758104</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.550929692180476</v>
@@ -11534,7 +11486,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.201683405025445</v>
+        <v>1.178329040380982</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.543247590623464</v>
@@ -11623,7 +11575,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.20522607018003</v>
+        <v>1.184121346369294</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.53259242360662</v>
@@ -11712,7 +11664,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.210714431631621</v>
+        <v>1.191372266697667</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.514311571442933</v>
@@ -11801,7 +11753,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.198516435603257</v>
+        <v>1.181596975538055</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.530927999639926</v>
@@ -11890,7 +11842,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.195809986682504</v>
+        <v>1.179338141303211</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.529638146645859</v>
@@ -11979,7 +11931,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.196789924493563</v>
+        <v>1.180958062857747</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.537224219197701</v>
@@ -12068,7 +12020,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.201952820425505</v>
+        <v>1.187120952760384</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.483202566856683</v>
@@ -12157,7 +12109,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.235881822454883</v>
+        <v>1.220807352320937</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.48076634070445</v>
@@ -12246,7 +12198,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.335573341600049</v>
+        <v>1.328354287820639</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.812177702392007</v>
@@ -12335,7 +12287,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.367273545770074</v>
+        <v>1.361477645986474</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.937567988967577</v>
@@ -12424,7 +12376,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.391992425975999</v>
+        <v>1.37991808793576</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.941272682074406</v>
@@ -12513,7 +12465,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.410272769654585</v>
+        <v>1.396264676187321</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.855384121782587</v>
@@ -12602,7 +12554,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.462934656171526</v>
+        <v>1.446732751640573</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.741702188148089</v>
@@ -12691,7 +12643,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.485618614269103</v>
+        <v>1.463878086780996</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.895405855338625</v>
@@ -12780,7 +12732,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.468956706769516</v>
+        <v>1.443887490992621</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.92921568691726</v>
@@ -12869,7 +12821,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.45820893246808</v>
+        <v>1.436028338456151</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.928646449277346</v>
@@ -12958,7 +12910,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.446152821317145</v>
+        <v>1.402465436615394</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.909105860727264</v>
@@ -13047,7 +12999,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.453851821001038</v>
+        <v>1.407121984032915</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.987775264728304</v>
@@ -13136,7 +13088,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.526256828283345</v>
+        <v>1.465949344001894</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.439400054991041</v>
@@ -13225,7 +13177,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.529738390634848</v>
+        <v>1.474074986426367</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.575223751958192</v>
@@ -13314,7 +13266,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.533031100499608</v>
+        <v>1.470192435596509</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.779919879299498</v>
@@ -13403,7 +13355,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.474097006699123</v>
+        <v>1.418635063034578</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.800491749758734</v>
@@ -13492,7 +13444,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.268558560425752</v>
+        <v>1.239580701795373</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.440680529676035</v>
@@ -13581,7 +13533,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.26103963501387</v>
+        <v>1.233404112435195</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.447000117544293</v>
@@ -13867,7 +13819,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.607751920654648</v>
+        <v>1.597276161315714</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.999089253471003</v>
@@ -13956,7 +13908,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.647682484558425</v>
+        <v>1.642070699874301</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.150478560288092</v>
@@ -14045,7 +13997,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.624657175193738</v>
+        <v>1.623004578087498</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.13724122806271</v>
@@ -14134,7 +14086,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.625149718969903</v>
+        <v>1.620285492596209</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.04984041470744</v>
@@ -14223,7 +14175,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.621521475820505</v>
+        <v>1.616666517574626</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.950934259264778</v>
@@ -14312,7 +14264,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.626121042627946</v>
+        <v>1.619245689473214</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.928002818898159</v>
@@ -14401,7 +14353,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.615867644810049</v>
+        <v>1.605822926363233</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.139413034286449</v>
@@ -14490,7 +14442,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.599324054686849</v>
+        <v>1.59406450695662</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.791527183624861</v>
@@ -14579,7 +14531,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.594943739857116</v>
+        <v>1.592710134415008</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.005114711202618</v>
@@ -14668,7 +14620,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.598775108079317</v>
+        <v>1.59507345026685</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.09494483197517</v>
@@ -14757,7 +14709,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.588601047495789</v>
+        <v>1.592853368846059</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.548990365654865</v>
@@ -14846,7 +14798,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.588533271251102</v>
+        <v>1.59245846729843</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.696881139664986</v>
@@ -14935,7 +14887,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.602647292552928</v>
+        <v>1.607308702417831</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.755133249044608</v>
@@ -15024,7 +14976,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.61168719715551</v>
+        <v>1.615990653327316</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.655628650625069</v>
@@ -15113,7 +15065,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.534365017557122</v>
+        <v>1.541118410964932</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.165855128845497</v>
@@ -15202,7 +15154,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.454833431375397</v>
+        <v>1.454997324025799</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.062624792469461</v>
@@ -15291,7 +15243,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.387682004624663</v>
+        <v>1.373443541206131</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.02009196107095</v>
@@ -15380,7 +15332,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.394911080652874</v>
+        <v>1.377579601872151</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.024950446683416</v>
@@ -15469,7 +15421,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.396876316583576</v>
+        <v>1.381137581434394</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.047247572335338</v>
@@ -15558,7 +15510,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.382200357394156</v>
+        <v>1.366801378664464</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.046899974058124</v>
@@ -15647,7 +15599,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.364294461591836</v>
+        <v>1.348197543542644</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.061147437135838</v>
@@ -15736,7 +15688,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.370863659807781</v>
+        <v>1.356698309308058</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.977629446150276</v>
@@ -15825,7 +15777,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.380101378249845</v>
+        <v>1.364212523776048</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.05694443077476</v>
@@ -15914,7 +15866,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.38039609932511</v>
+        <v>1.35833699878116</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.052230115626681</v>
@@ -16003,7 +15955,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.378983672424201</v>
+        <v>1.353827013345977</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.044438928466208</v>
@@ -16092,7 +16044,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.380660072988395</v>
+        <v>1.357754813919034</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.047842784530086</v>
@@ -16181,7 +16133,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.38626335036803</v>
+        <v>1.361826589610716</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.021105072795457</v>
@@ -16270,7 +16222,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.387563867070636</v>
+        <v>1.361628276866208</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.016633730532276</v>
@@ -16359,7 +16311,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.391460227658569</v>
+        <v>1.364499564521825</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.985294721854362</v>
@@ -16448,7 +16400,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.439341464471556</v>
+        <v>1.39693899312504</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.896262364342225</v>
@@ -16537,7 +16489,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.511583029035035</v>
+        <v>1.460023406613687</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.029964514884156</v>
@@ -16626,7 +16578,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.522472529769114</v>
+        <v>1.470685148301073</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.124916917778635</v>
@@ -16715,7 +16667,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.527300987188501</v>
+        <v>1.473077254797599</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.16460327057719</v>
@@ -16804,7 +16756,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.52257108138841</v>
+        <v>1.469356723221397</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.090091786923896</v>
@@ -16893,7 +16845,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.546580937930664</v>
+        <v>1.4882461107442</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.200868775378229</v>
@@ -16982,7 +16934,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.583919835744297</v>
+        <v>1.520617010260691</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.854244697666743</v>
@@ -17071,7 +17023,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.589115883470092</v>
+        <v>1.52615663144015</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.162860834975792</v>
@@ -17160,7 +17112,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.586134040386018</v>
+        <v>1.520831821285619</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.913512595612889</v>
@@ -17249,7 +17201,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.595306898099259</v>
+        <v>1.531260706377791</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.147345069930784</v>
@@ -17338,7 +17290,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.594895476700676</v>
+        <v>1.533630069359662</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.789736641235214</v>
@@ -17427,7 +17379,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.592965281693008</v>
+        <v>1.529069218422572</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.448395995742156</v>
@@ -17516,7 +17468,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.591926265306223</v>
+        <v>1.52621739403304</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.293352633932356</v>
@@ -17605,7 +17557,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.577290603698159</v>
+        <v>1.51920500289043</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.808919705734386</v>
@@ -17694,7 +17646,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.516911536828921</v>
+        <v>1.465740061405635</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.32783388518954</v>
@@ -17783,7 +17735,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.509597000227731</v>
+        <v>1.463690092829829</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.388756907802513</v>
@@ -17872,7 +17824,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.489520638640588</v>
+        <v>1.446938773020607</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.40947975181549</v>
@@ -17961,7 +17913,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.485951235583718</v>
+        <v>1.450437194533059</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.41862807943977</v>
@@ -18050,7 +18002,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.481301568082197</v>
+        <v>1.441803784438809</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.408202630839678</v>
@@ -18139,7 +18091,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.483012025557249</v>
+        <v>1.441431708461563</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.423879010380518</v>
@@ -18228,7 +18180,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.444724005841653</v>
+        <v>1.415351113789269</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.203280498844722</v>
@@ -18317,7 +18269,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.449654858084313</v>
+        <v>1.421785459388167</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.246255079096917</v>
@@ -18603,7 +18555,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.686057660028681</v>
+        <v>1.67737542396332</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.924546415823156</v>
@@ -18692,7 +18644,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.703639619956862</v>
+        <v>1.694657404174099</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.924330001087569</v>
@@ -18781,7 +18733,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.686433742588855</v>
+        <v>1.680489824283866</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.910945931289986</v>
@@ -18870,7 +18822,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.687259219177738</v>
+        <v>1.684977503093998</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.921197963994412</v>
@@ -18959,7 +18911,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.684227234672189</v>
+        <v>1.680222808058047</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.932472310992129</v>
@@ -19048,7 +19000,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.671437469439888</v>
+        <v>1.670052102112651</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.009438010521738</v>
@@ -19137,7 +19089,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.668040724845873</v>
+        <v>1.667204141768552</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.959012930382027</v>
@@ -19226,7 +19178,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.665561966455128</v>
+        <v>1.662610423503803</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.072298020407515</v>
@@ -19315,7 +19267,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.665944273345615</v>
+        <v>1.665087488889017</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.916446522371965</v>
@@ -19404,7 +19356,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.665142452953402</v>
+        <v>1.662421616826804</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.996086677563598</v>
@@ -19493,7 +19445,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.63161024310727</v>
+        <v>1.633180875945939</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.443853735964328</v>
@@ -19582,7 +19534,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.628825021363686</v>
+        <v>1.628705563776164</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.497339083884413</v>
@@ -19671,7 +19623,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.627468988767956</v>
+        <v>1.623290253874144</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.314311393275139</v>
@@ -19760,7 +19712,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.624737846369139</v>
+        <v>1.618806011347164</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.444988343347516</v>
@@ -19849,7 +19801,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.530931652030169</v>
+        <v>1.533740007042139</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.907797456475887</v>
@@ -19938,7 +19890,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.493645615867054</v>
+        <v>1.498096188404225</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.863748819732182</v>
@@ -20027,7 +19979,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.456286665755941</v>
+        <v>1.455521788374128</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.80611790367967</v>
@@ -20116,7 +20068,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.4565599988524</v>
+        <v>1.455792846660306</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.822540116466751</v>
@@ -20205,7 +20157,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.448413738459306</v>
+        <v>1.445255752177098</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.839883726117246</v>
@@ -20294,7 +20246,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.429512876869924</v>
+        <v>1.425702239538821</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.801615400801986</v>
@@ -20383,7 +20335,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.417078865293344</v>
+        <v>1.408898580849412</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.824751343326007</v>
@@ -20472,7 +20424,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.413899058547424</v>
+        <v>1.404078347166074</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.79803634837468</v>
@@ -20561,7 +20513,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.405878144698627</v>
+        <v>1.396558563556919</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.799439522141476</v>
@@ -20650,7 +20602,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.398142773106743</v>
+        <v>1.383802038317386</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.788071203938983</v>
@@ -20739,7 +20691,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.38855904688402</v>
+        <v>1.371358120375812</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.800178216577287</v>
@@ -20828,7 +20780,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.410443116406737</v>
+        <v>1.392732956173978</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.780725465393154</v>
@@ -20917,7 +20869,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.407201394623895</v>
+        <v>1.385680409218847</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.748554304639628</v>
@@ -21006,7 +20958,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.406870141900304</v>
+        <v>1.386320896713464</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.773170283079144</v>
@@ -21095,7 +21047,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.414083085934945</v>
+        <v>1.394111987294914</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.787670416089652</v>
@@ -21184,7 +21136,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.486386662549892</v>
+        <v>1.445242716434209</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.003077298019253</v>
@@ -21273,7 +21225,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.506006553923523</v>
+        <v>1.461828329399987</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.247121388236707</v>
@@ -21362,7 +21314,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.498349378811664</v>
+        <v>1.457920149920532</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.243938243051683</v>
@@ -21451,7 +21403,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.499180672209703</v>
+        <v>1.456835617635047</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.355869562549972</v>
@@ -21540,7 +21492,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.50640446746554</v>
+        <v>1.456442033749406</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.212689460288443</v>
@@ -21629,7 +21581,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.520493659278708</v>
+        <v>1.464865412617236</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.270833128518845</v>
@@ -21718,7 +21670,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.557177208698783</v>
+        <v>1.496052801064204</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.796131167506053</v>
@@ -21807,7 +21759,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.572115789714342</v>
+        <v>1.507192225891554</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.148161986115757</v>
@@ -21896,7 +21848,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.577433045787686</v>
+        <v>1.512737368572376</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.520530051842516</v>
@@ -21985,7 +21937,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.569082770027509</v>
+        <v>1.510012242141179</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.355135970376</v>
@@ -22074,7 +22026,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.588373870840003</v>
+        <v>1.522060053877333</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.015784192587885</v>
@@ -22163,7 +22115,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.598418935082285</v>
+        <v>1.533579834495734</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.517642998212864</v>
@@ -22252,7 +22204,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.604694048437743</v>
+        <v>1.533187549205229</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.501292565300129</v>
@@ -22341,7 +22293,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.599064939404508</v>
+        <v>1.533307915266208</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.268197986193292</v>
@@ -22430,7 +22382,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.588819379563725</v>
+        <v>1.519549876255056</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.690437474405978</v>
@@ -22519,7 +22471,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.578590485869833</v>
+        <v>1.514770454250106</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.744401553600666</v>
@@ -22608,7 +22560,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.576814715531303</v>
+        <v>1.515004507728994</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.974222042483682</v>
@@ -22697,7 +22649,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.583329350764508</v>
+        <v>1.52421692117465</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.725483749902473</v>
@@ -22786,7 +22738,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.571934498786895</v>
+        <v>1.52038912886328</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.042084064366812</v>
@@ -22875,7 +22827,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.566106742321941</v>
+        <v>1.513704955682264</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.632974157256309</v>
@@ -22964,7 +22916,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.520472038203059</v>
+        <v>1.482826693225104</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.333907086075642</v>
@@ -23053,7 +23005,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.521586897847674</v>
+        <v>1.490240078891406</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.292778987911587</v>
@@ -23339,7 +23291,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.642433523183732</v>
+        <v>1.630576815992997</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.561860520013296</v>
@@ -23428,7 +23380,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.674882040499463</v>
+        <v>1.67747171165974</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.684653455130086</v>
@@ -23517,7 +23469,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.672071038270643</v>
+        <v>1.676397170640241</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.735705646486192</v>
@@ -23606,7 +23558,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.669005271112892</v>
+        <v>1.676482518281762</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.737316735323862</v>
@@ -23695,7 +23647,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.670149691419667</v>
+        <v>1.678489448399179</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.800384864052909</v>
@@ -23784,7 +23736,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.67076640587896</v>
+        <v>1.677934031497922</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.719968805049937</v>
@@ -23873,7 +23825,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.658551536280697</v>
+        <v>1.66763340632251</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.651381885020396</v>
@@ -23962,7 +23914,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.645029048550658</v>
+        <v>1.656461888932271</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.686538410953942</v>
@@ -24051,7 +24003,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.64722131565684</v>
+        <v>1.659225204168967</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.769666396325674</v>
@@ -24140,7 +24092,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.644637904548811</v>
+        <v>1.655633207725313</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.817579553755924</v>
@@ -24229,7 +24181,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.602157187210768</v>
+        <v>1.611416444661516</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.161270501204017</v>
@@ -24318,7 +24270,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.561296045944548</v>
+        <v>1.578781023645763</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.183034149583349</v>
@@ -24407,7 +24359,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.554708708935997</v>
+        <v>1.56957474841957</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.175302087629779</v>
@@ -24496,7 +24448,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.548065894366048</v>
+        <v>1.561670692222485</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.145970801284283</v>
@@ -24585,7 +24537,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.511878911469532</v>
+        <v>1.530621092241905</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.206140648799974</v>
@@ -24674,7 +24626,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.437652262389236</v>
+        <v>1.452927694574244</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.956865291352823</v>
@@ -24763,7 +24715,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.350994590557207</v>
+        <v>1.346276873130516</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.843906981016236</v>
@@ -24852,7 +24804,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.346886042937927</v>
+        <v>1.336329583125172</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.811808109943562</v>
@@ -24941,7 +24893,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.340394193570817</v>
+        <v>1.329110284889448</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.799277818855727</v>
@@ -25030,7 +24982,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.33526818704214</v>
+        <v>1.320896695276639</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.79796736329634</v>
@@ -25119,7 +25071,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.327533305160625</v>
+        <v>1.314589190157173</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.815401696233604</v>
@@ -25208,7 +25160,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.328818374928529</v>
+        <v>1.313484309787294</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.821846069727538</v>
@@ -25297,7 +25249,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.338960500525941</v>
+        <v>1.32128061767872</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.860094842520549</v>
@@ -25386,7 +25338,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.331341853677917</v>
+        <v>1.311297753227423</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.796312995268077</v>
@@ -25475,7 +25427,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.325725920510235</v>
+        <v>1.305314778581874</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.776207698267602</v>
@@ -25564,7 +25516,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.362459732460895</v>
+        <v>1.345655818427025</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.162339378637634</v>
@@ -25653,7 +25605,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.383051589148715</v>
+        <v>1.358504597430576</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.17847253314963</v>
@@ -25742,7 +25694,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.3923904161561</v>
+        <v>1.366233175688089</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.211802356831337</v>
@@ -25831,7 +25783,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.394325326073733</v>
+        <v>1.371296547630101</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.267096636245082</v>
@@ -25920,7 +25872,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.421473327943654</v>
+        <v>1.393227944872515</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.263623667247669</v>
@@ -26009,7 +25961,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.449960179232528</v>
+        <v>1.412989346840537</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.377737571952768</v>
@@ -26098,7 +26050,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.434701288686771</v>
+        <v>1.400771314894795</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.263622783710249</v>
@@ -26187,7 +26139,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.433389537151811</v>
+        <v>1.398002502178937</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.122769490408793</v>
@@ -26276,7 +26228,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.435550996191993</v>
+        <v>1.3956474219331</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.23801262068445</v>
@@ -26365,7 +26317,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.444136558227594</v>
+        <v>1.40489042182424</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.299722457836507</v>
@@ -26454,7 +26406,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.451522808706362</v>
+        <v>1.41496949357192</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.599154067710835</v>
@@ -26543,7 +26495,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.457084471342684</v>
+        <v>1.419169148506594</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.958561881752651</v>
@@ -26632,7 +26584,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.455553668396403</v>
+        <v>1.417781357914456</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.862432927295734</v>
@@ -26721,7 +26673,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.463359409591219</v>
+        <v>1.424682977311392</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.613096201335103</v>
@@ -26810,7 +26762,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.463160192397241</v>
+        <v>1.426963526293515</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.058899554712509</v>
@@ -26899,7 +26851,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.465550964769677</v>
+        <v>1.430366094880045</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.848444322339714</v>
@@ -26988,7 +26940,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.465562288290975</v>
+        <v>1.425740426032426</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.346689135176415</v>
@@ -27077,7 +27029,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.44295691001839</v>
+        <v>1.411833744450956</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.414916072381625</v>
@@ -27166,7 +27118,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.429511479836258</v>
+        <v>1.393655923040778</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.538847321920884</v>
@@ -27255,7 +27207,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.427114169995437</v>
+        <v>1.390154701672375</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.546338647635538</v>
@@ -27344,7 +27296,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.424546184111431</v>
+        <v>1.393527024703529</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.312351309338811</v>
@@ -27433,7 +27385,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.434989035186894</v>
+        <v>1.404776948697488</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.523774115915847</v>
@@ -27522,7 +27474,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.436104388448806</v>
+        <v>1.40090768631016</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.444747489530185</v>
@@ -27611,7 +27563,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.423260251766792</v>
+        <v>1.387245604391495</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.57352869003669</v>
@@ -27700,7 +27652,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.393161921261532</v>
+        <v>1.359017225612505</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.278475250681746</v>
@@ -27789,7 +27741,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.388866121451042</v>
+        <v>1.354727163700985</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.150541050001422</v>
@@ -28075,7 +28027,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.622594099943592</v>
+        <v>1.636427623163457</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.887747397535083</v>
@@ -28164,7 +28116,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.637828022469624</v>
+        <v>1.654007359812863</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.014895875584596</v>
@@ -28253,7 +28205,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.620282683196498</v>
+        <v>1.637827326129642</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.024467408648691</v>
@@ -28342,7 +28294,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.610876573476413</v>
+        <v>1.632205048218464</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.834624838785378</v>
@@ -28431,7 +28383,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.603337234711399</v>
+        <v>1.624316526639784</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.840756704746627</v>
@@ -28520,7 +28472,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.606821700425636</v>
+        <v>1.631377208464582</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.755846583527232</v>
@@ -28609,7 +28561,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.614487565197305</v>
+        <v>1.637762361398329</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.992138651094647</v>
@@ -28698,7 +28650,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.599115438723037</v>
+        <v>1.628857545513338</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.982346569443441</v>
@@ -28787,7 +28739,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.611258138291309</v>
+        <v>1.633465584389656</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.907358493774343</v>
@@ -28876,7 +28828,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.618394561807156</v>
+        <v>1.636557960855095</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.900102688516992</v>
@@ -28965,7 +28917,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.581116759029643</v>
+        <v>1.599371014547107</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.525622071303331</v>
@@ -29054,7 +29006,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.579604825808328</v>
+        <v>1.592822746999133</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.577942444280161</v>
@@ -29143,7 +29095,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.591657732971535</v>
+        <v>1.600191818296498</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.472045962280625</v>
@@ -29232,7 +29184,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.580353103296723</v>
+        <v>1.589003023213192</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.360667853144053</v>
@@ -29321,7 +29273,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.502211016734972</v>
+        <v>1.518840180323826</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.090487607882463</v>
@@ -29410,7 +29362,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.47737904441949</v>
+        <v>1.499426485907198</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.098347509085941</v>
@@ -29499,7 +29451,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.445680263274777</v>
+        <v>1.461575401821084</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.038123010310351</v>
@@ -29588,7 +29540,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.460435060023588</v>
+        <v>1.471658879816201</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.952721991666297</v>
@@ -29677,7 +29629,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.454445686518272</v>
+        <v>1.467515796152414</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.957691410489641</v>
@@ -29766,7 +29718,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.448820055137563</v>
+        <v>1.460996622486806</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.968655888139691</v>
@@ -29855,7 +29807,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.432062321708201</v>
+        <v>1.440133377613037</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.9571711178298</v>
@@ -29944,7 +29896,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.424226824607598</v>
+        <v>1.428325610501515</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.963126226963404</v>
@@ -30033,7 +29985,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.420417279549974</v>
+        <v>1.42323973275163</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.928628369944374</v>
@@ -30122,7 +30074,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.409647780844458</v>
+        <v>1.413946005629491</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.886613816956665</v>
@@ -30211,7 +30163,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.391237284639645</v>
+        <v>1.397513269825052</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.864613337023994</v>
@@ -30300,7 +30252,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.418119223747103</v>
+        <v>1.419532408213079</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.829056933940976</v>
@@ -30389,7 +30341,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.426305400104032</v>
+        <v>1.422595957172985</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.839954113627528</v>
@@ -30478,7 +30430,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.425526936086748</v>
+        <v>1.422748214300429</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.824317278098914</v>
@@ -30567,7 +30519,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.435104427535655</v>
+        <v>1.433678736543551</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.855125281566549</v>
@@ -30656,7 +30608,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.512523067976496</v>
+        <v>1.489577831099952</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.018247405608327</v>
@@ -30745,7 +30697,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.528601021003167</v>
+        <v>1.497502259157105</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.510284896635236</v>
@@ -30834,7 +30786,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.528253044066546</v>
+        <v>1.498104238462723</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.374877833939386</v>
@@ -30923,7 +30875,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.523470442203855</v>
+        <v>1.495511332294089</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.309727051204978</v>
@@ -31012,7 +30964,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.534900010179883</v>
+        <v>1.502109603267448</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.317824711244315</v>
@@ -31101,7 +31053,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.535840340123945</v>
+        <v>1.501461289936901</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.542860317380466</v>
@@ -31190,7 +31142,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.536443097214511</v>
+        <v>1.505477361888188</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.960641309353732</v>
@@ -31279,7 +31231,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.533426656853758</v>
+        <v>1.510878046134065</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.426703263314673</v>
@@ -31368,7 +31320,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.530285256204255</v>
+        <v>1.507677085762927</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.199727669551574</v>
@@ -31457,7 +31409,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.534281254809727</v>
+        <v>1.520789180499214</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.749005378788009</v>
@@ -31546,7 +31498,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.529669219511871</v>
+        <v>1.513471121626612</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.01075370059046</v>
@@ -31635,7 +31587,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.526262809213119</v>
+        <v>1.508108738443479</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.268972908253984</v>
@@ -31724,7 +31676,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.550295413931514</v>
+        <v>1.526531974365959</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.71527773835188</v>
@@ -31813,7 +31765,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.563340497093391</v>
+        <v>1.541502940861685</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.992827558994273</v>
@@ -31902,7 +31854,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.566779136064788</v>
+        <v>1.538382344172999</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.339627173052881</v>
@@ -31991,7 +31943,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.571479218760637</v>
+        <v>1.555147661579526</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.337608026050869</v>
@@ -32080,7 +32032,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.51918992088907</v>
+        <v>1.507152249241422</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.309890889281213</v>
@@ -32169,7 +32121,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.48662433572286</v>
+        <v>1.4884386397544</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.307188807308524</v>
@@ -32258,7 +32210,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.477717488359945</v>
+        <v>1.477274509055952</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.386672572584911</v>
@@ -32347,7 +32299,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.471543996076162</v>
+        <v>1.467157116207247</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.375669450681318</v>
@@ -32436,7 +32388,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.434268153182472</v>
+        <v>1.437736021856804</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.280312047450021</v>
@@ -32525,7 +32477,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.441535970808329</v>
+        <v>1.444722958675938</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.341599256875881</v>
